--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1689661.936413707</v>
+        <v>1687164.204490021</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554859</v>
+        <v>10955577.07554864</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283208</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10513126.49094478</v>
+        <v>10513126.49094477</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>328.4578346555846</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>412.9288914861688</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386867</v>
+        <v>70.30215079559335</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123240971704</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011764</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723315</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261759</v>
+        <v>99.9687628426172</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323512</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199145</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156096</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973761</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -826,19 +826,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.02970123600478</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.4282648842201</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>124.3703705616604</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616886</v>
+        <v>12.92889148616878</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716163</v>
       </c>
       <c r="I5" t="n">
-        <v>77.74095132382047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123240971704</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011764</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.3555291777512</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261759</v>
+        <v>99.9687628426172</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323512</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199145</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156096</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973761</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>220.7129638096457</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>197.5339758908553</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>286.7710884697145</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>103.0689537395182</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>111.5266024655408</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>202.3860496764734</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>137.1782748299192</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>43.73846614325492</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.8107367464748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812461</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695582</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128558</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364137</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012214</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704672915</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144407</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695544</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.8176890312855</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012181</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>212.5626585298387</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>147.2606364488705</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>110.0177171766838</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>140.4383865840203</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703221</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703253</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1994.851249205926</v>
+        <v>1679.044371852226</v>
       </c>
       <c r="C2" t="n">
-        <v>1625.888732265514</v>
+        <v>1310.081854911814</v>
       </c>
       <c r="D2" t="n">
-        <v>1625.888732265514</v>
+        <v>951.8161563050635</v>
       </c>
       <c r="E2" t="n">
-        <v>1240.10047966727</v>
+        <v>951.8161563050635</v>
       </c>
       <c r="F2" t="n">
-        <v>908.324889106073</v>
+        <v>540.830251515456</v>
       </c>
       <c r="G2" t="n">
-        <v>491.2249987160033</v>
+        <v>123.7303611253865</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174001</v>
+        <v>123.7303611253865</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002453</v>
+        <v>72.94508437003098</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745311</v>
+        <v>153.9986274745473</v>
       </c>
       <c r="L2" t="n">
-        <v>482.9965724363753</v>
+        <v>693.1884131896157</v>
       </c>
       <c r="M2" t="n">
-        <v>1112.630525317652</v>
+        <v>1322.822366070906</v>
       </c>
       <c r="N2" t="n">
-        <v>1737.820616272767</v>
+        <v>1948.012457026035</v>
       </c>
       <c r="O2" t="n">
-        <v>2282.982253027263</v>
+        <v>2493.174093780543</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239692</v>
+        <v>2602.201833992984</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724205</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.143761215016</v>
+        <v>2263.799931140765</v>
       </c>
       <c r="U2" t="n">
-        <v>2381.451089270047</v>
+        <v>2010.107259195796</v>
       </c>
       <c r="V2" t="n">
-        <v>2381.451089270047</v>
+        <v>1679.044371852226</v>
       </c>
       <c r="W2" t="n">
-        <v>2381.451089270047</v>
+        <v>1679.044371852226</v>
       </c>
       <c r="X2" t="n">
-        <v>2381.451089270047</v>
+        <v>1679.044371852226</v>
       </c>
       <c r="Y2" t="n">
-        <v>2381.451089270047</v>
+        <v>1679.044371852226</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.431881212096</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.978851930969</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697178</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642623</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911474</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640319</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815747</v>
+        <v>98.84600463815593</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="J3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="K3" t="n">
-        <v>304.3729239851199</v>
+        <v>381.1211448320074</v>
       </c>
       <c r="L3" t="n">
-        <v>807.3557581822309</v>
+        <v>516.9720371787027</v>
       </c>
       <c r="M3" t="n">
-        <v>1446.292223162949</v>
+        <v>1155.908502159431</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.297497944258</v>
+        <v>1643.29749794423</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149932</v>
+        <v>2191.222737149913</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877466</v>
+        <v>2613.977979877455</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724205</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.390233267648</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373093</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880794</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.648482162597</v>
+        <v>2039.648482162595</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930853</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202651</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997118</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232164</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.6840035171199</v>
+        <v>866.1032195916517</v>
       </c>
       <c r="C4" t="n">
-        <v>350.747820589213</v>
+        <v>697.1670366637449</v>
       </c>
       <c r="D4" t="n">
-        <v>200.6311811768773</v>
+        <v>547.0503972514091</v>
       </c>
       <c r="E4" t="n">
-        <v>52.7180875944842</v>
+        <v>399.137303669016</v>
       </c>
       <c r="F4" t="n">
-        <v>52.7180875944842</v>
+        <v>252.2473561711056</v>
       </c>
       <c r="G4" t="n">
-        <v>52.7180875944842</v>
+        <v>252.2473561711056</v>
       </c>
       <c r="H4" t="n">
-        <v>52.7180875944842</v>
+        <v>195.6516983569594</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944842</v>
+        <v>70.97668332239363</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919773</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482418</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628299</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543764</v>
+        <v>746.6329435543961</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917339</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327115</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="X4" t="n">
-        <v>922.1250474908898</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.3324683473596</v>
+        <v>1047.751684421891</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>878.4775036989199</v>
+        <v>1504.086665537362</v>
       </c>
       <c r="C5" t="n">
-        <v>509.5149867585082</v>
+        <v>1135.12414859695</v>
       </c>
       <c r="D5" t="n">
-        <v>151.2492881517577</v>
+        <v>776.8584499901997</v>
       </c>
       <c r="E5" t="n">
-        <v>151.2492881517577</v>
+        <v>391.0701973919554</v>
       </c>
       <c r="F5" t="n">
-        <v>144.3037874025542</v>
+        <v>384.1246966427519</v>
       </c>
       <c r="G5" t="n">
-        <v>131.2443010528887</v>
+        <v>371.0652102930865</v>
       </c>
       <c r="H5" t="n">
-        <v>131.2443010528887</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002453</v>
+        <v>72.94508437003098</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745311</v>
+        <v>153.9986274745473</v>
       </c>
       <c r="L5" t="n">
-        <v>704.9390792031114</v>
+        <v>704.9390792031397</v>
       </c>
       <c r="M5" t="n">
-        <v>1334.573032084389</v>
+        <v>1334.57303208443</v>
       </c>
       <c r="N5" t="n">
-        <v>1959.763123039503</v>
+        <v>1959.763123039559</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780568</v>
+        <v>2493.174093780543</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992997</v>
+        <v>2602.201833992984</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724205</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.143761215016</v>
+        <v>2264.152263862563</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.451089270047</v>
+        <v>2264.152263862563</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.451089270047</v>
+        <v>2264.152263862563</v>
       </c>
       <c r="W5" t="n">
-        <v>2028.682433999933</v>
+        <v>2264.152263862563</v>
       </c>
       <c r="X5" t="n">
-        <v>1655.216675738853</v>
+        <v>1890.686505601484</v>
       </c>
       <c r="Y5" t="n">
-        <v>1265.077343763042</v>
+        <v>1890.686505601484</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120981</v>
+        <v>966.4318812120963</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309711</v>
+        <v>791.9788519309693</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697199</v>
+        <v>643.044442269718</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642644</v>
+        <v>483.8069872642625</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911494</v>
+        <v>337.2724292911474</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640319</v>
       </c>
       <c r="H6" t="n">
-        <v>98.8460046381575</v>
+        <v>98.84600463815593</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="J6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448320009</v>
+        <v>381.1211448320074</v>
       </c>
       <c r="L6" t="n">
-        <v>884.103979029112</v>
+        <v>884.1039790291273</v>
       </c>
       <c r="M6" t="n">
-        <v>1238.315708304459</v>
+        <v>1446.292223162911</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.320983085768</v>
+        <v>1643.29749794423</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291442</v>
+        <v>2191.222737149914</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877456</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724205</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.390233267648</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373093</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880794</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.648482162597</v>
+        <v>2039.648482162595</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930853</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202651</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997118</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232164</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.7180875944842</v>
+        <v>666.5739510150302</v>
       </c>
       <c r="C7" t="n">
-        <v>52.7180875944842</v>
+        <v>497.6377680871233</v>
       </c>
       <c r="D7" t="n">
-        <v>52.7180875944842</v>
+        <v>347.5211286747876</v>
       </c>
       <c r="E7" t="n">
-        <v>52.7180875944842</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="F7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919773</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482418</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628299</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543764</v>
+        <v>746.6329435543961</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917339</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327115</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="U7" t="n">
-        <v>824.809296735349</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="V7" t="n">
-        <v>570.1248085294621</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="W7" t="n">
-        <v>280.7076384925015</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="X7" t="n">
-        <v>52.7180875944842</v>
+        <v>1047.751684421891</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.7180875944842</v>
+        <v>848.2224158452699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1324.915375594597</v>
+        <v>1135.381653178697</v>
       </c>
       <c r="C8" t="n">
-        <v>1324.915375594597</v>
+        <v>766.4191362382849</v>
       </c>
       <c r="D8" t="n">
-        <v>966.6496769878461</v>
+        <v>476.7513701072601</v>
       </c>
       <c r="E8" t="n">
-        <v>580.8614243896018</v>
+        <v>476.7513701072601</v>
       </c>
       <c r="F8" t="n">
-        <v>573.9159236403983</v>
+        <v>65.76546531765258</v>
       </c>
       <c r="G8" t="n">
-        <v>156.8281418768258</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="H8" t="n">
-        <v>156.8281418768258</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082205</v>
+        <v>241.3579866082204</v>
       </c>
       <c r="K8" t="n">
-        <v>644.825099628266</v>
+        <v>644.8250996282659</v>
       </c>
       <c r="L8" t="n">
-        <v>1197.638357874465</v>
+        <v>1033.218542125542</v>
       </c>
       <c r="M8" t="n">
-        <v>1829.356168857777</v>
+        <v>1219.91795495095</v>
       </c>
       <c r="N8" t="n">
-        <v>2023.690381749759</v>
+        <v>1414.252167842932</v>
       </c>
       <c r="O8" t="n">
-        <v>2193.859407066719</v>
+        <v>1961.413372610009</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949309</v>
+        <v>2390.728418949304</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724205</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724205</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221033</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.90437972421</v>
+        <v>2264.889480488744</v>
       </c>
       <c r="U8" t="n">
-        <v>2382.212676469361</v>
+        <v>2264.889480488744</v>
       </c>
       <c r="V8" t="n">
-        <v>2051.14978912579</v>
+        <v>2264.889480488744</v>
       </c>
       <c r="W8" t="n">
-        <v>1698.381133855676</v>
+        <v>1912.12082521863</v>
       </c>
       <c r="X8" t="n">
-        <v>1324.915375594597</v>
+        <v>1912.12082521863</v>
       </c>
       <c r="Y8" t="n">
-        <v>1324.915375594597</v>
+        <v>1521.981493242818</v>
       </c>
     </row>
     <row r="9">
@@ -4866,37 +4866,37 @@
         <v>642.7523330787117</v>
       </c>
       <c r="E9" t="n">
-        <v>483.5148780732562</v>
+        <v>483.5148780732561</v>
       </c>
       <c r="F9" t="n">
-        <v>336.9803201001412</v>
+        <v>336.9803201001411</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593631</v>
+        <v>199.538922459363</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.6229446041676</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="K9" t="n">
-        <v>338.8545254640208</v>
+        <v>382.1464919002939</v>
       </c>
       <c r="L9" t="n">
-        <v>843.2160653301394</v>
+        <v>886.5080317664125</v>
       </c>
       <c r="M9" t="n">
-        <v>1483.761414797244</v>
+        <v>1232.289170088821</v>
       </c>
       <c r="N9" t="n">
-        <v>2136.147748778986</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.660061447747</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
         <v>2404.349688975046</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>537.5585912764825</v>
+        <v>666.5739510150302</v>
       </c>
       <c r="C10" t="n">
-        <v>368.6224083485756</v>
+        <v>497.6377680871233</v>
       </c>
       <c r="D10" t="n">
-        <v>218.5057689362399</v>
+        <v>347.5211286747876</v>
       </c>
       <c r="E10" t="n">
-        <v>70.59267535384681</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="F10" t="n">
-        <v>70.59267535384681</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="G10" t="n">
-        <v>70.59267535384681</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="H10" t="n">
-        <v>70.59267535384681</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="I10" t="n">
-        <v>70.59267535384681</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944841</v>
       </c>
       <c r="K10" t="n">
-        <v>153.766017190094</v>
+        <v>153.7660171900939</v>
       </c>
       <c r="L10" t="n">
-        <v>338.5990120909124</v>
+        <v>338.5990120909123</v>
       </c>
       <c r="M10" t="n">
-        <v>543.8686128101504</v>
+        <v>543.8686128101502</v>
       </c>
       <c r="N10" t="n">
         <v>749.6919776462546</v>
@@ -5002,10 +5002,10 @@
         <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>939.9996352502524</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="Y10" t="n">
-        <v>719.2070561067222</v>
+        <v>848.2224158452699</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5130,7 +5130,7 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,16 +5361,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
         <v>402.7245934908939</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2402.78281474869</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2183.181349771631</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1894.106123115829</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1639.421634909942</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1350.004464872981</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1122.014913974964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5598,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038385</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="23">
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111687</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107575</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332378</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014765</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355919</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291067988</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694682</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852228</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245823</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403384</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266887</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821491</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6099,7 +6099,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V24" t="n">
         <v>1781.463605996603</v>
@@ -6108,7 +6108,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.614450297915</v>
@@ -6121,61 +6121,61 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.724593490894</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.724593490894</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.724593490894</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797711</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853352</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487557</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510498</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6187,10 +6187,10 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551868</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611457</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004706</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406462</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168543</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362617</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075791</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332384</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014775</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355932</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068003</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.4138706947</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885225</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398587</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492572</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474777</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466567</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122996</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852882</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.37586661599</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6291,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>280.849500424574</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>776.175106640332</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266883</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821489</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797733</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817742</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
         <v>776.1751066403293</v>
@@ -6610,7 +6610,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2238.060423687188</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T37" t="n">
-        <v>2018.458958710129</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>1729.383732054326</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1474.699243848439</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1185.282073811479</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.4894946679487</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,43 +7181,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
         <v>1373.553594266881</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400667</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.052681478291</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703064</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400699</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7576,43 +7576,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611857</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138397</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703096</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>193.4768642810201</v>
+        <v>405.7918549408303</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546477</v>
+        <v>6.839178026542555</v>
       </c>
       <c r="K3" t="n">
-        <v>186.9417816116887</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>293.3168899025039</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8228,7 +8228,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>368.930821653219</v>
+        <v>368.9308216531251</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546477</v>
+        <v>6.839178026542555</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>178.1043206132612</v>
+        <v>388.1816083490453</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>251.5805925818415</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>87.00473397279211</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>100.8781478275595</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311154</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243205</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-1.145255306345589e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3.032596396224108e-11</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.43719818829319</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
-        <v>137.2878198583897</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405032</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392195269</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.764366844436154e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>13.14699685919845</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>104.8770068749575</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986316</v>
+        <v>57.22910392194407</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>40.58789941762424</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219467</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="41">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194358</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>956939.7290390722</v>
+        <v>956939.7290390698</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>956939.7290390722</v>
+        <v>956939.7290390698</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.755344118</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441172</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893350.7553441176</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="15">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117838</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="F2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26344,13 +26344,13 @@
         <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222414</v>
+        <v>789845.9331222596</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448474159</v>
+        <v>2553.741448457607</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329923</v>
+        <v>775624.2722329928</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.783371310554988e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821403</v>
+        <v>172417.1413821381</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.158712166215992e-09</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663867</v>
+        <v>128024.1174663871</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408927</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408927</v>
       </c>
       <c r="D4" t="n">
-        <v>183932.5854660025</v>
+        <v>183932.5854660026</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695024</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695594</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>6287.480531695059</v>
       </c>
-      <c r="I4" t="n">
-        <v>6287.480531695035</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.48053169506</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695044</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695061</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538475</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538475</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917773</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26488,10 +26488,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-527171.2433767378</v>
+        <v>-527171.2433767527</v>
       </c>
       <c r="C6" t="n">
-        <v>262674.6897455041</v>
+        <v>262674.6897455071</v>
       </c>
       <c r="D6" t="n">
-        <v>260559.69793813</v>
+        <v>260559.6979381466</v>
       </c>
       <c r="E6" t="n">
-        <v>-358388.9927900906</v>
+        <v>-358423.7307155268</v>
       </c>
       <c r="F6" t="n">
-        <v>417235.2794429017</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="G6" t="n">
-        <v>417235.2794429017</v>
+        <v>417200.5415174659</v>
       </c>
       <c r="H6" t="n">
-        <v>417235.2794429014</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="I6" t="n">
-        <v>417235.2794429017</v>
+        <v>417200.54151747</v>
       </c>
       <c r="J6" t="n">
-        <v>244818.1380607612</v>
+        <v>244783.4001353278</v>
       </c>
       <c r="K6" t="n">
-        <v>417235.2794429019</v>
+        <v>417200.5415174649</v>
       </c>
       <c r="L6" t="n">
-        <v>417235.2794429019</v>
+        <v>417200.5415174662</v>
       </c>
       <c r="M6" t="n">
-        <v>289211.161976515</v>
+        <v>289176.424051079</v>
       </c>
       <c r="N6" t="n">
-        <v>417235.2794429018</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="O6" t="n">
-        <v>417235.2794429018</v>
+        <v>417200.5415174662</v>
       </c>
       <c r="P6" t="n">
-        <v>417235.2794429018</v>
+        <v>417200.5415174661</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053598</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053598</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26756,10 +26756,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341668</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341672</v>
       </c>
       <c r="K3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310512</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310512</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310512</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053598</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632724546</v>
+        <v>2.981900632705219</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26972,19 +26972,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-5.911715561524034e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310512</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685974</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310439</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310512</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685974</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>78.4182110861268</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716163</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.65603974309039</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>96.73020361058492</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842211</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371251</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937727</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3958800207156</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>101.3392848273768</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.21723921486627</v>
+        <v>118.9581905386837</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011782</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>0.3488093945802575</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465897</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842211</v>
+        <v>123.4282648842201</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063044</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371251</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937727</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3958800207156</v>
       </c>
       <c r="U7" t="n">
-        <v>65.54798415015281</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>21.05067746123945</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>67.91195315096849</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>15.42708715437215</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>114.1830529234964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16.19860367562134</v>
       </c>
     </row>
     <row r="11">
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966269</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064415081</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903172217</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009761</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071183</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160948</v>
       </c>
       <c r="M2" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337237</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635241</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129908</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728859</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605314</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170525</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506714</v>
+        <v>54.0940163850689</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179985</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823173015</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366246</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387887</v>
+        <v>12.26668139387927</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817996</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401241</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976626</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623947</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394211</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351711</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492137</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789808</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527191018</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916065168</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822828</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445357</v>
+        <v>5.119473297445523</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830568</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026059</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849874</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303821</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034604234</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546639</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177288</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609757</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203332</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953924</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324607</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550933</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004441</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319958</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565886</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669233054</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966269</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064415081</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903172217</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009761</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071183</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160948</v>
       </c>
       <c r="M5" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337237</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635241</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129908</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728859</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605314</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170525</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506714</v>
+        <v>54.0940163850689</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179985</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823173015</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366246</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387887</v>
+        <v>12.26668139387927</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817996</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401241</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976626</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623947</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394211</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351711</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492137</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789808</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527191018</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916065168</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822828</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445357</v>
+        <v>5.119473297445523</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830568</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026059</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849874</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303821</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034604234</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546639</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177288</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609757</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203332</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953924</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324607</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550933</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004441</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319958</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565886</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669233054</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,10 +31850,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>746.4857620875799</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634841</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135317</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067223</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663263</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817546</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162525</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175635</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159384</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.586862645999</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236474</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669198</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292895</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078727</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659437</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521088</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305312</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473046</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.546647686209</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071753</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437213</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742415</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275946</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189893</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121561</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869244</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796254</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355166</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588138</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392029</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106772</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920043</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417302</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670473</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532748</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348426</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135334</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067229</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663277</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817567</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116255</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175663</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460017</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236498</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669216</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043721</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292899</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651525</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078741</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659446</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521097</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33026,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305229</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473065</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862113</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071776</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437235</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742432</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937732</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275952</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.4668410661899</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121567</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869267</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796259</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355175</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588149</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392041</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106784</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920053</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417311</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515925</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532761</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099321</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.134554967246722</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,10 +33977,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428316</v>
+        <v>20.43130987428978</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212782</v>
+        <v>81.87226576213772</v>
       </c>
       <c r="L2" t="n">
-        <v>332.3211565271154</v>
+        <v>544.6361471869378</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992698</v>
+        <v>635.9938917992835</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789034</v>
+        <v>631.5051423789173</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540363</v>
+        <v>550.6683199540494</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176052</v>
+        <v>110.1290305176164</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459781</v>
+        <v>34.04297548608187</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>254.1968044349856</v>
+        <v>331.7202598358822</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859707</v>
+        <v>137.2231235825205</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673921</v>
+        <v>645.3903686674026</v>
       </c>
       <c r="N3" t="n">
-        <v>198.995227051827</v>
+        <v>492.3121169543417</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581489</v>
+        <v>553.4598375814987</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045797</v>
+        <v>427.0254977045877</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307501</v>
+        <v>22.14787863308032</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.443883128777</v>
+        <v>101.443883128781</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780449</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228163</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995618</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094321</v>
       </c>
       <c r="P4" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973542</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903814945</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428316</v>
+        <v>20.43130987428978</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212782</v>
+        <v>81.87226576213772</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965458</v>
+        <v>556.5055067965579</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992698</v>
+        <v>635.9938917992835</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789034</v>
+        <v>631.5051423789173</v>
       </c>
       <c r="O5" t="n">
-        <v>538.79896034451</v>
+        <v>538.7989603444291</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176052</v>
+        <v>110.1290305176164</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607346</v>
+        <v>34.04297548608187</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358755</v>
+        <v>331.7202598358822</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859707</v>
+        <v>508.0634688859797</v>
       </c>
       <c r="M6" t="n">
-        <v>357.7896255306534</v>
+        <v>567.866913266448</v>
       </c>
       <c r="N6" t="n">
-        <v>198.995227051827</v>
+        <v>198.9952270518378</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581489</v>
+        <v>553.4598375814987</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045797</v>
+        <v>427.0254977045877</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689241</v>
+        <v>22.14787863308032</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.443883128777</v>
+        <v>101.443883128781</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780449</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228163</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995618</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094321</v>
       </c>
       <c r="P7" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973542</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903814945</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>392.3166085831074</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>198.8575877601926</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>169.1688747602434</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>349.2738770933424</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310526</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35498,10 +35498,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>615.1440500042467</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096391</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191315</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316375</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.70871103964</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036774</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462653</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902908</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193475</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243122</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683779</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924703</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902693</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561722</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674304</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641906</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238421</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992769</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295265</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066237</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998975</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396414</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367762</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462678</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902936</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193504</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243149</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924721</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.86608439024</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>188.9220579561639</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674323</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641929</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238443</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992791</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295316</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096346</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191311</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010447</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989907</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.261899706045</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066246</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998981</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,10 +37625,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326294864</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
